--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H2">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I2">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J2">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N2">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q2">
-        <v>4.485750898057001</v>
+        <v>0.9008391594583334</v>
       </c>
       <c r="R2">
-        <v>40.371758082513</v>
+        <v>8.107552435124999</v>
       </c>
       <c r="S2">
-        <v>0.2540202373854805</v>
+        <v>0.07594608231086074</v>
       </c>
       <c r="T2">
-        <v>0.2540202373854804</v>
+        <v>0.07594608231086075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H3">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I3">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J3">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N3">
         <v>14.595625</v>
       </c>
       <c r="O3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q3">
-        <v>0.9190524497916668</v>
+        <v>0.2292729427083334</v>
       </c>
       <c r="R3">
-        <v>8.271472048125</v>
+        <v>2.063456484375</v>
       </c>
       <c r="S3">
-        <v>0.05204433477724068</v>
+        <v>0.01932906845329665</v>
       </c>
       <c r="T3">
-        <v>0.05204433477724067</v>
+        <v>0.01932906845329666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.188903</v>
+        <v>0.047125</v>
       </c>
       <c r="H4">
-        <v>0.566709</v>
+        <v>0.141375</v>
       </c>
       <c r="I4">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="J4">
-        <v>0.3560183867666543</v>
+        <v>0.1108387998127795</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N4">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q4">
-        <v>0.8821358921136667</v>
+        <v>0.1846091872083333</v>
       </c>
       <c r="R4">
-        <v>7.939223029023</v>
+        <v>1.661482684875</v>
       </c>
       <c r="S4">
-        <v>0.04995381460393319</v>
+        <v>0.01556364904862205</v>
       </c>
       <c r="T4">
-        <v>0.04995381460393318</v>
+        <v>0.01556364904862206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I5">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J5">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N5">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q5">
-        <v>5.337214743000334</v>
+        <v>4.296494624936556</v>
       </c>
       <c r="R5">
-        <v>48.03493268700301</v>
+        <v>38.668451624429</v>
       </c>
       <c r="S5">
-        <v>0.3022371475378799</v>
+        <v>0.3622199712430407</v>
       </c>
       <c r="T5">
-        <v>0.3022371475378799</v>
+        <v>0.3622199712430407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I6">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J6">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N6">
         <v>14.595625</v>
       </c>
       <c r="O6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q6">
         <v>1.093502603263889</v>
@@ -818,10 +818,10 @@
         <v>9.841523429375002</v>
       </c>
       <c r="S6">
-        <v>0.06192314222866244</v>
+        <v>0.09218875294514883</v>
       </c>
       <c r="T6">
-        <v>0.06192314222866244</v>
+        <v>0.09218875294514883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.6742790000000001</v>
       </c>
       <c r="I7">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557817</v>
       </c>
       <c r="J7">
-        <v>0.4235960992513493</v>
+        <v>0.5286385506557816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N7">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q7">
-        <v>1.049578720645889</v>
+        <v>0.880481684467889</v>
       </c>
       <c r="R7">
-        <v>9.446208485813001</v>
+        <v>7.924335160211001</v>
       </c>
       <c r="S7">
-        <v>0.05943580948480695</v>
+        <v>0.0742298264675921</v>
       </c>
       <c r="T7">
-        <v>0.05943580948480695</v>
+        <v>0.0742298264675921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H8">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I8">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J8">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N8">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O8">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P8">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q8">
-        <v>2.776807474023666</v>
+        <v>2.930137470977444</v>
       </c>
       <c r="R8">
-        <v>24.991267266213</v>
+        <v>26.371237238797</v>
       </c>
       <c r="S8">
-        <v>0.1572457565645913</v>
+        <v>0.2470279618914403</v>
       </c>
       <c r="T8">
-        <v>0.1572457565645913</v>
+        <v>0.2470279618914403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H9">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I9">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J9">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N9">
         <v>14.595625</v>
       </c>
       <c r="O9">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P9">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q9">
-        <v>0.5689196234027777</v>
+        <v>0.7457504854861112</v>
       </c>
       <c r="R9">
-        <v>5.120276610625</v>
+        <v>6.711754369375</v>
       </c>
       <c r="S9">
-        <v>0.03221692445129515</v>
+        <v>0.06287118755821824</v>
       </c>
       <c r="T9">
-        <v>0.03221692445129515</v>
+        <v>0.06287118755821826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169363333333333</v>
+        <v>0.1532823333333333</v>
       </c>
       <c r="H10">
-        <v>0.350809</v>
+        <v>0.459847</v>
       </c>
       <c r="I10">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="J10">
-        <v>0.2203855139819964</v>
+        <v>0.360522649531439</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N10">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O10">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P10">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q10">
-        <v>0.5460672235247777</v>
+        <v>0.6004737818581111</v>
       </c>
       <c r="R10">
-        <v>4.914605011722999</v>
+        <v>5.404264036722999</v>
       </c>
       <c r="S10">
-        <v>0.03092283296610993</v>
+        <v>0.05062350008178041</v>
       </c>
       <c r="T10">
-        <v>0.03092283296610993</v>
+        <v>0.05062350008178042</v>
       </c>
     </row>
   </sheetData>
